--- a/biology/Biologie cellulaire et moléculaire/Division_cellulaire/Division_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Division_cellulaire/Division_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La division cellulaire est le mode de multiplication de toute cellule. Elle lui permet de se diviser en plusieurs cellules (deux le plus souvent). C'est donc un processus fondamental dans le monde vivant, puisqu'il est nécessaire à la régénération de tout organisme.
 Chez les Eucaryotes — caractérisés principalement par des cellules qui possèdent un noyau — il y a deux types de division cellulaire :
@@ -516,7 +528,9 @@
           <t>Cytocinèse et caryocinèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut distinguer, dans la mitose, deux phases : la cytocinèse et la caryocinèse. La première correspond à la division de la cellule, alors que la seconde correspond à la division du noyau. Cette dernière n'est évidemment présente que chez les Eucaryotes.
 Dans certains cas, il peut y avoir caryocinèse sans cytocinèse, par exemple lors des premières divisions du développement embryonnaire de la drosophile, il y a formation de nombreux noyaux sans cellularisation. On obtient alors un syncitium. On observe le même phénomène lors des phases précoces d'infection d'un globule rouge par l'agent du paludisme, Plasmodium.
@@ -548,7 +562,9 @@
           <t>Inversion du processus de division</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En avril 2006, l'Oklahoma International Medical Research Foundation  affirme avoir découvert un processus inversant la division cellulaire, ce qui pourrait conduire à de nouveaux procédés de lutte contre le cancer (ainsi qu'à de nouvelles armes empêchant la cicatrisation des plaies). Cette découverte a été annoncée par la revue Nature dans son numéro du 13 avril 2006.
 L'article de Nature (anglais, PDF).
